--- a/biology/Botanique/Tetrachondraceae/Tetrachondraceae.xlsx
+++ b/biology/Botanique/Tetrachondraceae/Tetrachondraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tetrachondracées sont une petite famille de plantes dicotylédones, qui ne comprend que deux genres : Polypremum et Tetrachondra.
 Ce sont des plantes herbacées succulentes des régions tempérées de Nouvelle-Zélande et de Patagonie.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Tetrachondra, composé des mots grecs τετρα / tétra, quatre et χόνδρος / chondros, cartilage, probablement en référence aux fleurs tétramères et sans hypanthium libre (réceptacle floral fusionné).
 </t>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille n'existe pas en classification classique de Cronquist (1981)[1] qui assigne ces plantes à la famille Lamiaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille n'existe pas en classification classique de Cronquist (1981) qui assigne ces plantes à la famille Lamiaceae.
 </t>
         </is>
       </c>
@@ -574,12 +590,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[2] et NCBI  (12 nov. 2015)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015) et NCBI  (12 nov. 2015) :
 Polypremum (en)
 Tetrachondra (en)
-Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2015)[4] et DELTA Angio           (12 nov. 2015)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2015) et DELTA Angio           (12 nov. 2015) :
 genre Tetrachondra Petrie ex Oliv. (1892)</t>
         </is>
       </c>
@@ -608,13 +626,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2015)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2015) :
 genre Tetrachondra Petrie ex Oliv. (1892)
 Tetrachondra hamiltonii Petrie ex Oliv. (1892)
 Tetrachondra patagonica Skottsb. (1912)
-Selon NCBI  (12 nov. 2015)[3] :
+Selon NCBI  (12 nov. 2015) :
 genre Polypremum
 Polypremum procumbens
 genre Tetrachondra
